--- a/pkg/benchmark/testdata/experiment.2024-04-07-4/experiment-2024-04-07-4.xlsx
+++ b/pkg/benchmark/testdata/experiment.2024-04-07-4/experiment-2024-04-07-4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D251728-4524-4720-B6CC-72B9346985FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826D7F1-ED9B-48CC-B95A-A92A8C419B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{356622AA-B474-4E96-8600-3283248EC917}"/>
   </bookViews>
@@ -6260,7 +6260,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Controller CPU vs Resources</a:t>
+              <a:t>CPU vs Resources</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11936,7 +11936,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Elapsed Seconds</a:t>
+                  <a:t>Elapsed Minutes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12006,8 +12006,11 @@
         <c:crossAx val="2116643807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="600"/>
+        <c:majorUnit val="300"/>
         <c:minorUnit val="60"/>
+        <c:dispUnits>
+          <c:custUnit val="60"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="2116643807"/>
@@ -12148,7 +12151,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>CPU (cores)</a:t>
+                  <a:t>CPU (millicores)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -21887,7 +21890,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4E4F86B4-8937-4B90-A4AB-C4A56E8BFD8C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
